--- a/notebooks/personas_pob_total_CONDACT-CAT_OCUP-CAT_INAC.xlsx
+++ b/notebooks/personas_pob_total_CONDACT-CAT_OCUP-CAT_INAC.xlsx
@@ -515,7 +515,7 @@
         <v>0.06</v>
       </c>
       <c r="C4">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="M4">
         <v>0.05</v>
